--- a/phenotypes/data/D01_ColdTolerance/TIME_thermal_survival_data.xlsx
+++ b/phenotypes/data/D01_ColdTolerance/TIME_thermal_survival_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcbtfgg_ucl_ac_uk/Documents/Projects/TIME/phenotypes/data/D01_ColdTolerance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3138" documentId="8_{368FFB61-FADD-9C4B-AB10-DD37F3230BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DD880A-B2C8-2242-B911-ADAAFD1E5262}"/>
+  <xr:revisionPtr revIDLastSave="3139" documentId="8_{368FFB61-FADD-9C4B-AB10-DD37F3230BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8B669B-F2EE-7F40-A449-AC75716B76BF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29160" windowHeight="17280" xr2:uid="{D131485D-66E3-EC4B-A742-7241054092C5}"/>
   </bookViews>
@@ -577,9 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207058E8-8B04-5D44-B45D-9BA80024C88A}">
   <dimension ref="A1:L2148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1789" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1804" sqref="K1804"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A922" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J929" sqref="J929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32623,7 +32623,7 @@
         <v>9</v>
       </c>
       <c r="J929" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K929" s="3"/>
       <c r="L929" s="3"/>
